--- a/Digital_Editions/4Q266/457_1932_Frg_1_e/457_1932.xlsx
+++ b/Digital_Editions/4Q266/457_1932_Frg_1_e/457_1932.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tucker-James/github/SQE-Damascus/Digital_Editions/4Q266/457_1932_Frg_1_e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250907EE-7E62-8946-A465-263193862D8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B977782-ACE7-674E-8C25-476584415F68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11180" windowWidth="38260" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="11180" windowWidth="38260" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -234,6 +234,78 @@
   </si>
   <si>
     <t>02_Frg_1_e_ROI.tif:0004-2567-3575:4</t>
+  </si>
+  <si>
+    <t>◦</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>ם</t>
+  </si>
+  <si>
+    <t>מ</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>א</t>
+  </si>
+  <si>
+    <t>ת</t>
+  </si>
+  <si>
+    <t>ע</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>ר</t>
+  </si>
+  <si>
+    <t>ל</t>
+  </si>
+  <si>
+    <t>נ</t>
+  </si>
+  <si>
+    <t>ב</t>
+  </si>
+  <si>
+    <t>כ</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>possible_letter</t>
+  </si>
+  <si>
+    <t>probable_letter</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>relevant_w</t>
+  </si>
+  <si>
+    <t>intralinear</t>
+  </si>
+  <si>
+    <t>DAMAGED</t>
+  </si>
+  <si>
+    <t>NOT_DAMAGED</t>
   </si>
 </sst>
 </file>
@@ -611,9 +683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -700,8 +772,41 @@
         <f>SIGNs!A2</f>
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
+      </c>
       <c r="P2">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -709,8 +814,41 @@
         <f>SIGNs!A3</f>
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>84</v>
+      </c>
       <c r="P3">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -718,8 +856,41 @@
         <f>SIGNs!A4</f>
         <v>3</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
       <c r="P4">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>90</v>
+      </c>
+      <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -727,8 +898,41 @@
         <f>SIGNs!A5</f>
         <v>4</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
       <c r="P5">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -736,8 +940,41 @@
         <f>SIGNs!A6</f>
         <v>5</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
       <c r="P6">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -745,8 +982,41 @@
         <f>SIGNs!A7</f>
         <v>6</v>
       </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
       <c r="P7">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -754,8 +1024,41 @@
         <f>SIGNs!A8</f>
         <v>7</v>
       </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
       <c r="P8">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>90</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -763,8 +1066,41 @@
         <f>SIGNs!A9</f>
         <v>8</v>
       </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
       <c r="P9">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>90</v>
+      </c>
+      <c r="W9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -772,8 +1108,41 @@
         <f>SIGNs!A10</f>
         <v>9</v>
       </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
       <c r="P10">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -781,8 +1150,41 @@
         <f>SIGNs!A11</f>
         <v>10</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>86</v>
+      </c>
       <c r="P11">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>72</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -790,8 +1192,41 @@
         <f>SIGNs!A12</f>
         <v>11</v>
       </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
       <c r="P12">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W12" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -799,8 +1234,41 @@
         <f>SIGNs!A13</f>
         <v>12</v>
       </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
       <c r="P13">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>90</v>
+      </c>
+      <c r="W13" t="s">
+        <v>91</v>
+      </c>
+      <c r="X13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -808,8 +1276,41 @@
         <f>SIGNs!A14</f>
         <v>13</v>
       </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
       <c r="P14">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>69</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>90</v>
+      </c>
+      <c r="W14" t="s">
+        <v>91</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -817,8 +1318,41 @@
         <f>SIGNs!A15</f>
         <v>14</v>
       </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
       <c r="P15">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+      <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -826,80 +1360,386 @@
         <f>SIGNs!A16</f>
         <v>15</v>
       </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>90</v>
+      </c>
+      <c r="W16" t="s">
+        <v>91</v>
+      </c>
+      <c r="X16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17">
         <f>SIGNs!A17</f>
         <v>16</v>
       </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
       <c r="P17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>90</v>
+      </c>
+      <c r="W17" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SIGNs!A18</f>
         <v>17</v>
       </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
       <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>90</v>
+      </c>
+      <c r="W18" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19">
         <f>SIGNs!A19</f>
         <v>18</v>
       </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" t="s">
+        <v>79</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>90</v>
+      </c>
+      <c r="W19" t="s">
+        <v>91</v>
+      </c>
+      <c r="X19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20">
         <f>SIGNs!A20</f>
         <v>19</v>
       </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
       <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>79</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>90</v>
+      </c>
+      <c r="W20" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21">
         <f>SIGNs!A21</f>
         <v>20</v>
       </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>84</v>
+      </c>
       <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>90</v>
+      </c>
+      <c r="W21" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>SIGNs!A22</f>
         <v>21</v>
       </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
       <c r="P22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>90</v>
+      </c>
+      <c r="W22" t="s">
+        <v>91</v>
+      </c>
+      <c r="X22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23">
         <f>SIGNs!A23</f>
         <v>22</v>
       </c>
+      <c r="G23">
+        <v>22</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-8</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>90</v>
+      </c>
+      <c r="W23" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24">
         <f>SIGNs!A24</f>
         <v>23</v>
       </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
       <c r="P24">
-        <v>0</v>
+        <v>-8</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" t="s">
+        <v>83</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>90</v>
+      </c>
+      <c r="W24" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -907,16 +1747,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L23 N1:N23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N24 K1:L24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"null,True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M23" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M24" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O23" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"null,certain,probable_letter,possible_letter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:X23" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:X24" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:T23" xr:uid="{00000000-0002-0000-0000-000009000000}">
@@ -924,6 +1764,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2153,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
